--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_beg.xlsx
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Duke Erik and Professor Lierland D. of Piesberg Parliamentary University published this co-authored paper in The Journal of Urban History ("Where Did We Come From?" Issue 44).
+    <t xml:space="preserve">Duke Erik and Professor Lierland D. of Piesberg Parliamentary University published this co-authored paper in The Journal of Urban History ('Where Did We Come From?' Issue 44).
 </t>
   </si>
   <si>
@@ -796,11 +796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"...Attention all citizens... are performing an evacuation exercise..."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"...Those citizens who have failed to evacuate, please lock your doors, draw your curtains, and do not leave your homes..."
+    <t xml:space="preserve">'...Attention all citizens... are performing an evacuation exercise...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'...Those citizens who have failed to evacuate, please lock your doors, draw your curtains, and do not leave your homes...'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_beg.xlsx
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8:50 AM - Four hours after the recapture of L. G. D. Headquarters - Near the Commandery Exit
+    <t xml:space="preserve">8:50 A.M. - Four hours after the recapture of L. G. D. Headquarters - Near the Commandery Exit
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9:20 AM - Rhodes Island patrol route near the L. G. D.
+    <t xml:space="preserve">9:20 A.M. - Rhodes Island patrol route near the L. G. D.
 </t>
   </si>
   <si>
